--- a/Suivi d_activité simplifié.xlsx
+++ b/Suivi d_activité simplifié.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Bureau\projet choco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projet-choco\S-raphin_Paryss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="suiviactivite" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="phase">BD!$A$1:$A$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">SUIVI D'ACTIVITE </t>
   </si>
@@ -92,15 +92,9 @@
     <t xml:space="preserve">Mathis Penneroux </t>
   </si>
   <si>
-    <t xml:space="preserve">lecture du projet et mise en place d'un plan </t>
-  </si>
-  <si>
     <t>Temps passé/h</t>
   </si>
   <si>
-    <t>auto formation</t>
-  </si>
-  <si>
     <t xml:space="preserve">zonning </t>
   </si>
   <si>
@@ -109,11 +103,50 @@
   <si>
     <t>Création de la charte graphique</t>
   </si>
+  <si>
+    <t>mise en place d'un plan, objectif du site</t>
+  </si>
+  <si>
+    <t>recherche d'exemple de site similaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             1,5-2,5</t>
+  </si>
+  <si>
+    <t>céation des fichiers HTML/CSS ainsi que la structure de base</t>
+  </si>
+  <si>
+    <t>Création de tout le corps du site</t>
+  </si>
+  <si>
+    <t>responsive</t>
+  </si>
+  <si>
+    <t>animations</t>
+  </si>
+  <si>
+    <t>listement de tous les petits problème</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relecture du code </t>
+  </si>
+  <si>
+    <t>optimisation du code</t>
+  </si>
+  <si>
+    <t>24/11-&gt;08/12</t>
+  </si>
+  <si>
+    <t>11-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test final du site </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -194,6 +227,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,29 +562,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="43.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -564,12 +598,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -583,70 +617,158 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
-        <v>45559</v>
+        <v>45570</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
-        <v>45565</v>
+        <v>45577</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>45585</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>45598</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
-        <v>45575</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>45606</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
-        <v>45575</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11">
+      <c r="F12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>45612</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>45640</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>45641</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
-        <v>45577</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>45641</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>45647</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>45648</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>45648</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D19 D21:D27">
       <formula1>phase</formula1>
     </dataValidation>
   </dataValidations>
@@ -666,37 +788,37 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -718,6 +840,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002DA466C5E9D9A349AB9E3BE1704DF405" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac0927b7e5c58a6b8b268ae5d81931fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e6981e3-1551-40fc-96c9-58b9e341c569" xmlns:ns3="071f6b9a-d669-40a2-addc-0cffef4075e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8551663d1e6d179c23056fd0669f30f" ns2:_="" ns3:_="">
     <xsd:import namespace="0e6981e3-1551-40fc-96c9-58b9e341c569"/>
@@ -912,33 +1043,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ED2E60F-8A58-4C24-A96E-CF7A9EA166E5}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="071f6b9a-d669-40a2-addc-0cffef4075e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="071f6b9a-d669-40a2-addc-0cffef4075e0"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="0e6981e3-1551-40fc-96c9-58b9e341c569"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39018C03-D391-4956-8F31-6DC9AEBE58DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2BCCFB-E527-4003-A8ED-27522BFA8D46}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -955,12 +1085,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39018C03-D391-4956-8F31-6DC9AEBE58DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>